--- a/Data/Data collected/Questionnaires_lables_old/2BDI_2025.xlsx
+++ b/Data/Data collected/Questionnaires_lables_old/2BDI_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/תואר פסיכולוגיה/תואר שני/תואר שני קלינית מחקרית/שיעורים - קלינית/מעבדה/תזה/Data/Data Collected/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/Github/Creativity-in-ADHD/Data/Data collected/Questionnaires_lables_old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E098E7B-5200-4E43-99D5-E71F6DD87486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF69B06-C3D7-9140-A0F5-1554E42C8E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="408">
   <si>
     <t>StartDate</t>
   </si>
@@ -1244,6 +1244,9 @@
   </si>
   <si>
     <t>mkSJjy</t>
+  </si>
+  <si>
+    <t>vQtQiu</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T73" workbookViewId="0">
+      <selection activeCell="AN75" sqref="AN75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8459,8 +8464,8 @@
       <c r="AM56">
         <v>5</v>
       </c>
-      <c r="AN56" s="2" t="s">
-        <v>121</v>
+      <c r="AN56" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:40" ht="128" x14ac:dyDescent="0.2">
@@ -10777,8 +10782,8 @@
       <c r="AM75">
         <v>4</v>
       </c>
-      <c r="AN75" s="2" t="s">
-        <v>121</v>
+      <c r="AN75" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:40" ht="128" x14ac:dyDescent="0.2">
@@ -12371,7 +12376,7 @@
   <autoFilter ref="A2:AN89" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C88 D1:D88 G1:G88 I1:I88 J1:J88 K1:K88 L1:L88 M1:M88 P1:P88 Q1:Q88 R1:R88 S1:S88 T1:T88 U1:U88 V1:V88 W1:W88 X1:X88 Y1:Y88 Z1:Z88 AA1:AA88 AB1:AB88 AC1:AC88 AD1:AD88 AE1:AE88 AF1:AF88 AG1:AG88 AH1:AH88 AI1:AI88 AJ1:AJ88 AK1:AK88 AL1:AL88 AN1:AN88" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C88 D1:D88 G1:G88 I1:I88 J1:J88 K1:K88 L1:L88 M1:M88 P1:P88 Q1:Q88 R1:R88 S1:S88 T1:T88 U1:U88 V1:V88 W1:W88 X1:X88 Y1:Y88 Z1:Z88 AA1:AA88 AB1:AB88 AC1:AC88 AD1:AD88 AE1:AE88 AF1:AF88 AG1:AG88 AH1:AH88 AI1:AI88 AJ1:AJ88 AK1:AK88 AL1:AL88 AN1:AN55 AN57:AN74 AN76:AN88" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>